--- a/keyboard-layer-cake.xlsx
+++ b/keyboard-layer-cake.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="145">
   <si>
     <t>Q</t>
   </si>
@@ -610,30 +610,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-Next
-(W-C-Tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>E</t>
     </r>
     <r>
@@ -1045,18 +1021,6 @@
     </r>
   </si>
   <si>
-    <t>Mode 1: Colemak Keyboard Layer Cake</t>
-  </si>
-  <si>
-    <t>Mode 2: Colemak Keyboard Layer Cake</t>
-  </si>
-  <si>
-    <t>Mode 3: Colemak Keyboard Layer Cake</t>
-  </si>
-  <si>
-    <t>Mode 4: Colemak Keyboard Layer Cake</t>
-  </si>
-  <si>
     <t>Mode 5: Colemak Keyboard Layer Cake</t>
   </si>
   <si>
@@ -1081,9 +1045,11 @@
     <t>n</t>
   </si>
   <si>
+    <t>'</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Tab
-</t>
+      <t>Tab</t>
     </r>
     <r>
       <rPr>
@@ -1093,9 +1059,21 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Next
+      <t xml:space="preserve">
 (W-C-Tab)</t>
     </r>
+  </si>
+  <si>
+    <t>Mode 1: Colemak Keyboard Layer Cake (Press and release Caps Lock by itself)</t>
+  </si>
+  <si>
+    <t>Mode 2: Colemak Keyboard Layer Cake (Press and release Left Shift by itself)</t>
+  </si>
+  <si>
+    <t>Mode 3: Colemak Keyboard Layer Cake (Press and release Right Shift by itself)</t>
+  </si>
+  <si>
+    <t>Mode 4: Colemak Keyboard Layer Cake (Press and release Left Shift and Right Shift together)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2189,6 +2167,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2496,7 +2480,7 @@
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2494,7 @@
     <row r="1" spans="1:48" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3042,7 +3026,7 @@
     <row r="10" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -3174,7 +3158,7 @@
     <row r="12" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -3221,7 +3205,7 @@
       </c>
       <c r="Z12" s="46"/>
       <c r="AA12" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
@@ -4502,7 +4486,7 @@
     <row r="18" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4872,28 +4856,28 @@
     <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="41" t="s">
@@ -4913,7 +4897,7 @@
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X25" s="29"/>
       <c r="Y25" s="28"/>
@@ -6952,17 +6936,17 @@
     <row r="27" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="109"/>
       <c r="J27" s="139" t="s">
@@ -6970,11 +6954,11 @@
       </c>
       <c r="K27" s="109"/>
       <c r="L27" s="142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M27" s="109"/>
       <c r="N27" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="41" t="s">
@@ -6994,11 +6978,11 @@
       </c>
       <c r="W27" s="109"/>
       <c r="X27" s="142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y27" s="109"/>
       <c r="Z27" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="29"/>
       <c r="AB27" s="28" t="s">
@@ -9034,30 +9018,30 @@
     <row r="29" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P29" s="29"/>
       <c r="Q29" s="28">
@@ -9081,7 +9065,7 @@
       </c>
       <c r="Z29" s="29"/>
       <c r="AA29" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB29" s="47"/>
       <c r="AC29" s="47"/>
@@ -12312,7 +12296,7 @@
     <row r="35" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12682,7 +12666,7 @@
     <row r="42" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
@@ -12723,7 +12707,7 @@
       </c>
       <c r="V42" s="29"/>
       <c r="W42" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X42" s="105"/>
       <c r="Y42" s="101" t="s">
@@ -14766,13 +14750,13 @@
     <row r="44" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="109"/>
       <c r="H44" s="108" t="s">
@@ -14784,7 +14768,7 @@
       </c>
       <c r="K44" s="109"/>
       <c r="L44" s="112" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M44" s="113"/>
       <c r="N44" s="101" t="s">
@@ -14796,22 +14780,24 @@
       </c>
       <c r="Q44" s="29"/>
       <c r="R44" s="112" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="S44" s="109"/>
       <c r="T44" s="108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U44" s="109"/>
       <c r="V44" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W44" s="113"/>
       <c r="X44" s="112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y44" s="113"/>
-      <c r="Z44" s="118"/>
+      <c r="Z44" s="118" t="s">
+        <v>139</v>
+      </c>
       <c r="AA44" s="119"/>
       <c r="AB44" s="28" t="s">
         <v>36</v>
@@ -16846,54 +16832,54 @@
     <row r="46" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L46" s="29"/>
       <c r="M46" s="104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N46" s="105"/>
       <c r="O46" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P46" s="29"/>
       <c r="Q46" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R46" s="29"/>
       <c r="S46" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T46" s="29"/>
       <c r="U46" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V46" s="29"/>
       <c r="W46" s="101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X46" s="29"/>
       <c r="Y46" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z46" s="29"/>
       <c r="AA46" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB46" s="47"/>
       <c r="AC46" s="47"/>
@@ -20124,7 +20110,7 @@
     <row r="52" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -20499,7 +20485,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" s="75"/>
       <c r="G59" s="28"/>
@@ -22556,53 +22542,53 @@
     <row r="61" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
       <c r="F61" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="79"/>
       <c r="H61" s="79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I61" s="79"/>
       <c r="J61" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K61" s="79"/>
       <c r="L61" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M61" s="81"/>
       <c r="N61" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q61" s="82"/>
       <c r="R61" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S61" s="79"/>
       <c r="T61" s="79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U61" s="79"/>
       <c r="V61" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W61" s="79"/>
       <c r="X61" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y61" s="79"/>
       <c r="Z61" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA61" s="46"/>
       <c r="AB61" s="47" t="s">
@@ -24638,20 +24624,20 @@
     <row r="63" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H63" s="75"/>
       <c r="I63" s="76"/>
       <c r="J63" s="76"/>
       <c r="K63" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
@@ -24669,7 +24655,7 @@
       <c r="Y63" s="46"/>
       <c r="Z63" s="46"/>
       <c r="AA63" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB63" s="47"/>
       <c r="AC63" s="47"/>
@@ -27900,7 +27886,7 @@
     <row r="69" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -28269,37 +28255,31 @@
     </row>
     <row r="76" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
-      <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
+      <c r="B76" s="35"/>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
-      <c r="E76" s="28" t="s">
-        <v>94</v>
+      <c r="E76" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="F76" s="29"/>
-      <c r="G76" s="28" t="s">
-        <v>95</v>
+      <c r="G76" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="H76" s="29"/>
-      <c r="I76" s="28" t="s">
-        <v>96</v>
+      <c r="I76" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="J76" s="29"/>
-      <c r="K76" s="28" t="s">
-        <v>97</v>
+      <c r="K76" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="L76" s="29"/>
-      <c r="M76" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="M76" s="28"/>
       <c r="N76" s="29"/>
-      <c r="O76" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="O76" s="28"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R76" s="29"/>
       <c r="S76" s="28" t="s">
@@ -28307,11 +28287,11 @@
       </c>
       <c r="T76" s="29"/>
       <c r="U76" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V76" s="29"/>
       <c r="W76" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X76" s="29"/>
       <c r="Y76" s="28"/>
@@ -30350,54 +30330,48 @@
     <row r="78" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C78" s="80"/>
       <c r="D78" s="80"/>
       <c r="E78" s="80"/>
-      <c r="F78" s="139">
-        <v>1</v>
+      <c r="F78" s="139" t="s">
+        <v>102</v>
       </c>
       <c r="G78" s="109"/>
-      <c r="H78" s="139">
-        <v>2</v>
+      <c r="H78" s="139" t="s">
+        <v>103</v>
       </c>
       <c r="I78" s="109"/>
-      <c r="J78" s="139">
-        <v>3</v>
+      <c r="J78" s="139" t="s">
+        <v>106</v>
       </c>
       <c r="K78" s="109"/>
-      <c r="L78" s="139">
-        <v>4</v>
+      <c r="L78" s="139" t="s">
+        <v>107</v>
       </c>
       <c r="M78" s="109"/>
-      <c r="N78" s="28">
-        <v>5</v>
+      <c r="N78" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="O78" s="29"/>
-      <c r="P78" s="28">
-        <v>6</v>
-      </c>
+      <c r="P78" s="28"/>
       <c r="Q78" s="29"/>
-      <c r="R78" s="139">
-        <v>7</v>
+      <c r="R78" s="139" t="s">
+        <v>96</v>
       </c>
       <c r="S78" s="109"/>
-      <c r="T78" s="139">
-        <v>8</v>
+      <c r="T78" s="139" t="s">
+        <v>97</v>
       </c>
       <c r="U78" s="109"/>
-      <c r="V78" s="139">
-        <v>9</v>
+      <c r="V78" s="139" t="s">
+        <v>98</v>
       </c>
       <c r="W78" s="109"/>
-      <c r="X78" s="139">
-        <v>0</v>
-      </c>
+      <c r="X78" s="139"/>
       <c r="Y78" s="109"/>
-      <c r="Z78" s="41" t="s">
-        <v>33</v>
-      </c>
+      <c r="Z78" s="41"/>
       <c r="AA78" s="29"/>
       <c r="AB78" s="28" t="s">
         <v>36</v>
@@ -32432,54 +32406,46 @@
     <row r="80" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="32"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="28" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J80" s="29"/>
-      <c r="K80" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="K80" s="28"/>
       <c r="L80" s="29"/>
-      <c r="M80" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="M80" s="28"/>
       <c r="N80" s="29"/>
-      <c r="O80" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="O80" s="28"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="28" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R80" s="29"/>
       <c r="S80" s="28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="T80" s="29"/>
       <c r="U80" s="28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V80" s="29"/>
       <c r="W80" s="28" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="X80" s="29"/>
-      <c r="Y80" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="Y80" s="28"/>
       <c r="Z80" s="29"/>
       <c r="AA80" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB80" s="47"/>
       <c r="AC80" s="47"/>
@@ -35172,8 +35138,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63:L64"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35187,7 +35153,7 @@
     <row r="1" spans="1:48" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -35719,7 +35685,7 @@
     <row r="10" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -35851,7 +35817,7 @@
     <row r="12" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -35898,7 +35864,7 @@
       </c>
       <c r="Z12" s="46"/>
       <c r="AA12" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
@@ -37179,7 +37145,7 @@
     <row r="18" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -37549,28 +37515,28 @@
     <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="41" t="s">
@@ -37590,7 +37556,7 @@
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X25" s="29"/>
       <c r="Y25" s="28"/>
@@ -39629,17 +39595,17 @@
     <row r="27" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="109"/>
       <c r="H27" s="139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="109"/>
       <c r="J27" s="139" t="s">
@@ -39647,11 +39613,11 @@
       </c>
       <c r="K27" s="109"/>
       <c r="L27" s="142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M27" s="109"/>
       <c r="N27" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="41" t="s">
@@ -39671,11 +39637,11 @@
       </c>
       <c r="W27" s="109"/>
       <c r="X27" s="142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y27" s="109"/>
       <c r="Z27" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="29"/>
       <c r="AB27" s="28" t="s">
@@ -41711,30 +41677,30 @@
     <row r="29" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P29" s="29"/>
       <c r="Q29" s="28">
@@ -41758,7 +41724,7 @@
       </c>
       <c r="Z29" s="29"/>
       <c r="AA29" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB29" s="47"/>
       <c r="AC29" s="47"/>
@@ -44989,7 +44955,7 @@
     <row r="35" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -45359,7 +45325,7 @@
     <row r="42" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
@@ -45372,15 +45338,17 @@
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="101" t="s">
         <v>78</v>
       </c>
       <c r="L42" s="29"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="29"/>
+      <c r="M42" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="105"/>
       <c r="O42" s="101" t="s">
         <v>75</v>
       </c>
@@ -45389,10 +45357,14 @@
         <v>74</v>
       </c>
       <c r="R42" s="29"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="29"/>
+      <c r="S42" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="T42" s="105"/>
+      <c r="U42" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" s="105"/>
       <c r="W42" s="101" t="s">
         <v>70</v>
       </c>
@@ -46422,16 +46394,16 @@
       <c r="J43" s="117"/>
       <c r="K43" s="116"/>
       <c r="L43" s="117"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="31"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="107"/>
       <c r="O43" s="30"/>
       <c r="P43" s="31"/>
       <c r="Q43" s="30"/>
       <c r="R43" s="31"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="31"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="107"/>
       <c r="W43" s="30"/>
       <c r="X43" s="31"/>
       <c r="Y43" s="30"/>
@@ -47437,13 +47409,13 @@
     <row r="44" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C44" s="80"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
       <c r="F44" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="109"/>
       <c r="H44" s="108" t="s">
@@ -47471,16 +47443,20 @@
       </c>
       <c r="S44" s="109"/>
       <c r="T44" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U44" s="109"/>
       <c r="V44" s="108" t="s">
         <v>73</v>
       </c>
       <c r="W44" s="109"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="118"/>
+      <c r="X44" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="118" t="s">
+        <v>139</v>
+      </c>
       <c r="AA44" s="119"/>
       <c r="AB44" s="28" t="s">
         <v>36</v>
@@ -48511,8 +48487,8 @@
       <c r="U45" s="141"/>
       <c r="V45" s="140"/>
       <c r="W45" s="141"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="111"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="115"/>
       <c r="Z45" s="120"/>
       <c r="AA45" s="121"/>
       <c r="AB45" s="122"/>
@@ -49515,50 +49491,54 @@
     <row r="46" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="L46" s="29"/>
+      <c r="M46" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="N46" s="105"/>
+      <c r="O46" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="L46" s="29"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="101" t="s">
-        <v>86</v>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="104" t="s">
+        <v>138</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="101" t="s">
-        <v>82</v>
+      <c r="R46" s="105"/>
+      <c r="S46" s="101" t="s">
+        <v>124</v>
       </c>
-      <c r="R46" s="29"/>
-      <c r="S46" s="101"/>
       <c r="T46" s="29"/>
       <c r="U46" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V46" s="29"/>
       <c r="W46" s="101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X46" s="29"/>
       <c r="Y46" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z46" s="29"/>
       <c r="AA46" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB46" s="47"/>
       <c r="AC46" s="47"/>
@@ -50582,8 +50562,8 @@
       <c r="N47" s="107"/>
       <c r="O47" s="30"/>
       <c r="P47" s="31"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="117"/>
+      <c r="Q47" s="143"/>
+      <c r="R47" s="144"/>
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
       <c r="U47" s="30"/>
@@ -52789,7 +52769,7 @@
     <row r="52" spans="1:1024" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -53164,7 +53144,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" s="75"/>
       <c r="G59" s="28"/>
@@ -55221,53 +55201,53 @@
     <row r="61" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
       <c r="F61" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="79"/>
       <c r="H61" s="79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I61" s="79"/>
       <c r="J61" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K61" s="79"/>
       <c r="L61" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M61" s="81"/>
       <c r="N61" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O61" s="46"/>
       <c r="P61" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q61" s="82"/>
       <c r="R61" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S61" s="79"/>
       <c r="T61" s="79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U61" s="79"/>
       <c r="V61" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W61" s="79"/>
       <c r="X61" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y61" s="79"/>
       <c r="Z61" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA61" s="46"/>
       <c r="AB61" s="47" t="s">
@@ -57303,20 +57283,20 @@
     <row r="63" spans="1:1024" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H63" s="75"/>
       <c r="I63" s="76"/>
       <c r="J63" s="76"/>
       <c r="K63" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
@@ -57334,7 +57314,7 @@
       <c r="Y63" s="46"/>
       <c r="Z63" s="46"/>
       <c r="AA63" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB63" s="47"/>
       <c r="AC63" s="47"/>
